--- a/Assets/SceneRebuilder/Documents/闵行性能优化测试.xlsx
+++ b/Assets/SceneRebuilder/Documents/闵行性能优化测试.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -728,11 +728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C36" sqref="C36"/>
+      <selection pane="topRight" activeCell="AD1" sqref="AD1:AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,7 +762,7 @@
     <col min="29" max="29" width="5.375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>54</v>
       </c>
@@ -798,8 +798,17 @@
       <c r="AC1" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -839,8 +848,20 @@
       <c r="AA2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -884,7 +905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -958,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1045,7 +1066,7 @@
       </c>
       <c r="AC5" s="13"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1131,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1218,7 +1239,7 @@
       </c>
       <c r="AC7" s="13"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1304,7 +1325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1390,7 +1411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1479,7 +1500,7 @@
       </c>
       <c r="AC10" s="14"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1565,7 +1586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1651,7 +1672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1740,7 +1761,7 @@
       </c>
       <c r="AC13" s="13"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1823,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>66</v>
       </c>
@@ -1962,11 +1983,17 @@
       </c>
       <c r="AC29" s="13"/>
     </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="L1:S1"/>
     <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="AD1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
